--- a/DateBase/orders/Nha Thu_2024-11-2.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-2.xlsx
@@ -603,6 +603,9 @@
       <c r="C21" t="str">
         <v>614_康乃馨绿_green_undefined_20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -664,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030155201020123010456551010151060</v>
+        <v>030155201020123010456551010151061</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-2.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,12 +604,95 @@
         <v>614_康乃馨绿_green_undefined_20stems</v>
       </c>
       <c r="F21" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>273_蓝调_bluetone_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>4</v>
+      </c>
+      <c r="C30" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +750,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030155201020123010456551010151061</v>
+        <v>0301552010201230104565510101510610155444466100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-2.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-2.xlsx
@@ -689,6 +689,9 @@
       <c r="C31" t="str">
         <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -750,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301552010201230104565510101510610155444466100</v>
+        <v>0301552010201230104565510101510610155444466105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-2.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -693,9 +693,49 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +793,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301552010201230104565510101510610155444466105</v>
+        <v>030155201020123010456551010151061015544446610520107105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-2.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-2.xlsx
@@ -795,6 +795,9 @@
       <c r="G2" t="str">
         <v>030155201020123010456551010151061015544446610520107105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
